--- a/plannification/Chronologie.xlsx
+++ b/plannification/Chronologie.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E79019D2-B961-426F-90B1-2437D6EDB0F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A89F731-6EE9-44EF-A64B-7BE14448D4BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -125,7 +125,7 @@
     <t>CHRONOLOGIE DE PROJET</t>
   </si>
   <si>
-    <t>Backend complet</t>
+    <t>DB Complète</t>
   </si>
 </sst>
 </file>
@@ -900,94 +900,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>44277</c:v>
+                  <c:v>44299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44278</c:v>
+                  <c:v>44300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44279</c:v>
+                  <c:v>44301</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44280</c:v>
+                  <c:v>44302</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44281</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44282</c:v>
+                  <c:v>44304</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44283</c:v>
+                  <c:v>44305</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44284</c:v>
+                  <c:v>44306</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44285</c:v>
+                  <c:v>44307</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44286</c:v>
+                  <c:v>44308</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44287</c:v>
+                  <c:v>44309</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44288</c:v>
+                  <c:v>44310</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44289</c:v>
+                  <c:v>44311</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44290</c:v>
+                  <c:v>44312</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44291</c:v>
+                  <c:v>44313</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44292</c:v>
+                  <c:v>44314</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44293</c:v>
+                  <c:v>44315</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44294</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44295</c:v>
+                  <c:v>44317</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44296</c:v>
+                  <c:v>44318</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44297</c:v>
+                  <c:v>44319</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44298</c:v>
+                  <c:v>44320</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44299</c:v>
+                  <c:v>44321</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44300</c:v>
+                  <c:v>44322</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44301</c:v>
+                  <c:v>44323</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44302</c:v>
+                  <c:v>44324</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44303</c:v>
+                  <c:v>44325</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44304</c:v>
+                  <c:v>44326</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44305</c:v>
+                  <c:v>44327</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44306</c:v>
+                  <c:v>44328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1294,94 +1294,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>44277</c:v>
+                  <c:v>44299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44278</c:v>
+                  <c:v>44300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44279</c:v>
+                  <c:v>44301</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44280</c:v>
+                  <c:v>44302</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44281</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44282</c:v>
+                  <c:v>44304</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44283</c:v>
+                  <c:v>44305</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44284</c:v>
+                  <c:v>44306</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44285</c:v>
+                  <c:v>44307</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44286</c:v>
+                  <c:v>44308</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44287</c:v>
+                  <c:v>44309</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44288</c:v>
+                  <c:v>44310</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44289</c:v>
+                  <c:v>44311</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44290</c:v>
+                  <c:v>44312</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44291</c:v>
+                  <c:v>44313</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44292</c:v>
+                  <c:v>44314</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44293</c:v>
+                  <c:v>44315</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44294</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44295</c:v>
+                  <c:v>44317</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44296</c:v>
+                  <c:v>44318</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44297</c:v>
+                  <c:v>44319</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44298</c:v>
+                  <c:v>44320</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44299</c:v>
+                  <c:v>44321</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44300</c:v>
+                  <c:v>44322</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44301</c:v>
+                  <c:v>44323</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44302</c:v>
+                  <c:v>44324</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44303</c:v>
+                  <c:v>44325</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44304</c:v>
+                  <c:v>44326</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44305</c:v>
+                  <c:v>44327</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44306</c:v>
+                  <c:v>44328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1688,94 +1688,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>44277</c:v>
+                  <c:v>44299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44278</c:v>
+                  <c:v>44300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44279</c:v>
+                  <c:v>44301</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44280</c:v>
+                  <c:v>44302</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44281</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44282</c:v>
+                  <c:v>44304</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44283</c:v>
+                  <c:v>44305</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44284</c:v>
+                  <c:v>44306</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44285</c:v>
+                  <c:v>44307</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44286</c:v>
+                  <c:v>44308</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44287</c:v>
+                  <c:v>44309</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44288</c:v>
+                  <c:v>44310</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44289</c:v>
+                  <c:v>44311</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44290</c:v>
+                  <c:v>44312</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44291</c:v>
+                  <c:v>44313</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44292</c:v>
+                  <c:v>44314</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44293</c:v>
+                  <c:v>44315</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44294</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44295</c:v>
+                  <c:v>44317</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44296</c:v>
+                  <c:v>44318</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44297</c:v>
+                  <c:v>44319</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44298</c:v>
+                  <c:v>44320</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44299</c:v>
+                  <c:v>44321</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44300</c:v>
+                  <c:v>44322</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44301</c:v>
+                  <c:v>44323</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44302</c:v>
+                  <c:v>44324</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44303</c:v>
+                  <c:v>44325</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44304</c:v>
+                  <c:v>44326</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44305</c:v>
+                  <c:v>44327</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44306</c:v>
+                  <c:v>44328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2091,94 +2091,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>44277</c:v>
+                  <c:v>44299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44278</c:v>
+                  <c:v>44300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44279</c:v>
+                  <c:v>44301</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44280</c:v>
+                  <c:v>44302</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44281</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44282</c:v>
+                  <c:v>44304</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44283</c:v>
+                  <c:v>44305</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44284</c:v>
+                  <c:v>44306</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44285</c:v>
+                  <c:v>44307</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44286</c:v>
+                  <c:v>44308</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44287</c:v>
+                  <c:v>44309</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44288</c:v>
+                  <c:v>44310</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44289</c:v>
+                  <c:v>44311</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44290</c:v>
+                  <c:v>44312</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44291</c:v>
+                  <c:v>44313</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44292</c:v>
+                  <c:v>44314</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44293</c:v>
+                  <c:v>44315</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44294</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44295</c:v>
+                  <c:v>44317</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44296</c:v>
+                  <c:v>44318</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44297</c:v>
+                  <c:v>44319</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44298</c:v>
+                  <c:v>44320</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44299</c:v>
+                  <c:v>44321</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44300</c:v>
+                  <c:v>44322</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44301</c:v>
+                  <c:v>44323</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44302</c:v>
+                  <c:v>44324</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44303</c:v>
+                  <c:v>44325</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44304</c:v>
+                  <c:v>44326</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44305</c:v>
+                  <c:v>44327</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44306</c:v>
+                  <c:v>44328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2485,94 +2485,94 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>44277</c:v>
+                  <c:v>44299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44278</c:v>
+                  <c:v>44300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44279</c:v>
+                  <c:v>44301</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44280</c:v>
+                  <c:v>44302</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44281</c:v>
+                  <c:v>44303</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44282</c:v>
+                  <c:v>44304</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44283</c:v>
+                  <c:v>44305</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44284</c:v>
+                  <c:v>44306</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44285</c:v>
+                  <c:v>44307</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44286</c:v>
+                  <c:v>44308</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44287</c:v>
+                  <c:v>44309</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44288</c:v>
+                  <c:v>44310</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44289</c:v>
+                  <c:v>44311</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44290</c:v>
+                  <c:v>44312</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44291</c:v>
+                  <c:v>44313</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44292</c:v>
+                  <c:v>44314</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44293</c:v>
+                  <c:v>44315</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44294</c:v>
+                  <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44295</c:v>
+                  <c:v>44317</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>44296</c:v>
+                  <c:v>44318</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44297</c:v>
+                  <c:v>44319</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44298</c:v>
+                  <c:v>44320</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44299</c:v>
+                  <c:v>44321</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44300</c:v>
+                  <c:v>44322</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44301</c:v>
+                  <c:v>44323</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44302</c:v>
+                  <c:v>44324</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>44303</c:v>
+                  <c:v>44325</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>44304</c:v>
+                  <c:v>44326</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>44305</c:v>
+                  <c:v>44327</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>44306</c:v>
+                  <c:v>44328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2593,7 +2593,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -2692,7 +2692,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DÉBUT DU PROJET</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2794,7 +2794,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -2934,13 +2934,13 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>#N/A</c:v>
@@ -2952,16 +2952,16 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>#N/A</c:v>
@@ -3021,7 +3021,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BACKEND COMPLET</c:v>
+                  <c:v>JALON 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3113,7 +3113,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>#N/A</c:v>
@@ -3134,7 +3134,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>#N/A</c:v>
@@ -3263,22 +3263,22 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>#N/A</c:v>
@@ -3329,7 +3329,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>JALON 2</c:v>
+                  <c:v>JALON 5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3445,13 +3445,13 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>5.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>#N/A</c:v>
@@ -3586,37 +3586,37 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>4.3000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>#N/A</c:v>
-                </c:pt>
                 <c:pt idx="28">
-                  <c:v>#N/A</c:v>
+                  <c:v>4.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>#N/A</c:v>
+                  <c:v>4.3000000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3637,7 +3637,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>JALON 3</c:v>
+                  <c:v>JALON 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3759,37 +3759,37 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>4.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3918,13 +3918,13 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>#N/A</c:v>
+                  <c:v>3.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.3000000000000007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3945,7 +3945,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>JALON 4</c:v>
+                  <c:v>FIN DU PROJET</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4091,7 +4091,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>#N/A</c:v>
+                  <c:v>3.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>#N/A</c:v>
@@ -4249,7 +4249,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mars 2021</c:v>
+                  <c:v>avr 2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4304,28 +4304,28 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>#N/A</c:v>
@@ -4382,7 +4382,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>avr 2021</c:v>
+                  <c:v>mai 2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4437,28 +4437,28 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.5</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.5</c:v>
@@ -4515,7 +4515,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>avr 2021</c:v>
+                  <c:v>mai 2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4599,31 +4599,31 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>#N/A</c:v>
@@ -4674,7 +4674,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mars 2021</c:v>
+                  <c:v>avr 2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4909,7 +4909,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>22</c:v>
+                      <c:v>13</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -4925,12 +4925,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{91E5EB33-7254-4681-8821-104A395CA0D0}</c15:txfldGUID>
+                      <c15:txfldGUID>{D1F08085-B797-4C2A-A580-B28DD65F7462}</c15:txfldGUID>
                       <c15:f>calculs!$E$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>22</c:v>
+                          <c:v>13</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -4950,7 +4950,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>23</c:v>
+                      <c:v>14</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -4966,12 +4966,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{056EB144-FFD8-4F85-BA6F-44EE01230C3B}</c15:txfldGUID>
+                      <c15:txfldGUID>{C32C30E1-3EBF-4589-BD20-73ABFD7E88EC}</c15:txfldGUID>
                       <c15:f>calculs!$F$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>23</c:v>
+                          <c:v>14</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -4991,7 +4991,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>24</c:v>
+                      <c:v>15</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -5007,12 +5007,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{89580CEC-5EAD-4B1C-97B9-5A50A0D49765}</c15:txfldGUID>
+                      <c15:txfldGUID>{149A772F-4BD8-4746-91BA-33B4892CC087}</c15:txfldGUID>
                       <c15:f>calculs!$G$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>24</c:v>
+                          <c:v>15</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5032,7 +5032,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>25</c:v>
+                      <c:v>16</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -5048,12 +5048,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{8545E94E-6A2D-49CD-B8D7-9C3963A79AA0}</c15:txfldGUID>
+                      <c15:txfldGUID>{BFF76042-8F09-426A-AB11-54CBBFB13B2D}</c15:txfldGUID>
                       <c15:f>calculs!$H$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>25</c:v>
+                          <c:v>16</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5073,7 +5073,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>26</c:v>
+                      <c:v>17</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -5089,12 +5089,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{BBD4D7FE-9EB7-40FC-9A6C-47C820B70167}</c15:txfldGUID>
+                      <c15:txfldGUID>{36191FA2-876B-4D4E-A33A-C42FE2EE0B32}</c15:txfldGUID>
                       <c15:f>calculs!$I$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>26</c:v>
+                          <c:v>17</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5114,7 +5114,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>27</c:v>
+                      <c:v>18</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -5130,12 +5130,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B0CCE384-759A-43C6-A375-50636A00DF8F}</c15:txfldGUID>
+                      <c15:txfldGUID>{5C24F6EC-3083-4BC5-92F5-43CDF4CC8F88}</c15:txfldGUID>
                       <c15:f>calculs!$J$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>27</c:v>
+                          <c:v>18</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5155,7 +5155,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>28</c:v>
+                      <c:v>19</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -5171,12 +5171,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{FD007607-9BDC-4933-A70C-09BA38515573}</c15:txfldGUID>
+                      <c15:txfldGUID>{346D59BE-C0B8-474B-B378-AF57B618C294}</c15:txfldGUID>
                       <c15:f>calculs!$K$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>28</c:v>
+                          <c:v>19</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5196,7 +5196,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>29</c:v>
+                      <c:v>20</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -5212,12 +5212,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5871A10A-0CD1-4301-9EBE-92FCB8B03789}</c15:txfldGUID>
+                      <c15:txfldGUID>{54F2390E-90CE-4939-8664-1BD8090D242E}</c15:txfldGUID>
                       <c15:f>calculs!$L$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>29</c:v>
+                          <c:v>20</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5237,7 +5237,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>30</c:v>
+                      <c:v>21</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -5253,12 +5253,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{490AB93F-2286-458A-A054-BD8D36EE4211}</c15:txfldGUID>
+                      <c15:txfldGUID>{CCFE3A4B-C77A-4845-B1F6-F416E47D0980}</c15:txfldGUID>
                       <c15:f>calculs!$M$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>30</c:v>
+                          <c:v>21</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5278,7 +5278,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>31</c:v>
+                      <c:v>22</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -5294,12 +5294,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{8E9E42D4-4BF5-459E-84DC-4877D0DE0FB4}</c15:txfldGUID>
+                      <c15:txfldGUID>{8B3506FB-B855-42DB-9FDA-D4DB0CE47841}</c15:txfldGUID>
                       <c15:f>calculs!$N$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>31</c:v>
+                          <c:v>22</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5319,7 +5319,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>01</c:v>
+                      <c:v>23</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -5335,12 +5335,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7687F3C4-D644-41DD-8033-641A5D97C53E}</c15:txfldGUID>
+                      <c15:txfldGUID>{9E222783-9B18-4BB9-A8F5-B51BE3C306D2}</c15:txfldGUID>
                       <c15:f>calculs!$O$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>01</c:v>
+                          <c:v>23</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5360,7 +5360,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>02</c:v>
+                      <c:v>24</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -5376,12 +5376,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7775A3FF-98B8-4C89-A149-8EFC41F425E5}</c15:txfldGUID>
+                      <c15:txfldGUID>{543DACE2-9EEE-4608-8117-866E2C1443DB}</c15:txfldGUID>
                       <c15:f>calculs!$P$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>02</c:v>
+                          <c:v>24</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5401,7 +5401,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>03</c:v>
+                      <c:v>25</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -5417,12 +5417,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{2EBD0E2B-C163-44F4-8E23-B270C8EF9740}</c15:txfldGUID>
+                      <c15:txfldGUID>{22909C7D-3987-412D-8A77-35BBD688F337}</c15:txfldGUID>
                       <c15:f>calculs!$Q$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>03</c:v>
+                          <c:v>25</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5442,7 +5442,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>04</c:v>
+                      <c:v>26</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -5458,12 +5458,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{67184AFC-56D9-4BEF-AC33-16EBA3509231}</c15:txfldGUID>
+                      <c15:txfldGUID>{AE64F193-0C98-4121-827B-7DA785B04341}</c15:txfldGUID>
                       <c15:f>calculs!$R$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>04</c:v>
+                          <c:v>26</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5483,7 +5483,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>05</c:v>
+                      <c:v>27</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -5499,12 +5499,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{3E43E2DA-F6FB-48CA-8EDF-33EC525BF631}</c15:txfldGUID>
+                      <c15:txfldGUID>{2F3A50FE-1695-41D7-B8BC-7391EAA98160}</c15:txfldGUID>
                       <c15:f>calculs!$S$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>05</c:v>
+                          <c:v>27</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5524,7 +5524,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>06</c:v>
+                      <c:v>28</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -5540,12 +5540,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6912286D-C48E-4E1E-A4F2-FB1AE54063A3}</c15:txfldGUID>
+                      <c15:txfldGUID>{D57F84D7-5912-4263-8B44-10F9F83FF273}</c15:txfldGUID>
                       <c15:f>calculs!$T$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>06</c:v>
+                          <c:v>28</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5565,7 +5565,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>07</c:v>
+                      <c:v>29</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -5581,12 +5581,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5A26E1A0-F961-4C64-B44E-09E9533A0E43}</c15:txfldGUID>
+                      <c15:txfldGUID>{4C8D43B0-E19E-46F5-A325-53262D17C5B1}</c15:txfldGUID>
                       <c15:f>calculs!$U$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>07</c:v>
+                          <c:v>29</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5606,7 +5606,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>08</c:v>
+                      <c:v>30</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -5622,12 +5622,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{EF3EABC1-191F-4C1B-B88F-EEBF7DCFBAC1}</c15:txfldGUID>
+                      <c15:txfldGUID>{2C14216B-2D5C-44E4-9902-E5DA2BA9DB2C}</c15:txfldGUID>
                       <c15:f>calculs!$V$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>08</c:v>
+                          <c:v>30</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5647,7 +5647,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>09</c:v>
+                      <c:v>01</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -5663,12 +5663,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{92904E7C-1AE4-49F1-9CEB-6F211CE7C659}</c15:txfldGUID>
+                      <c15:txfldGUID>{54588205-0B0D-49D4-A265-D33A135C6689}</c15:txfldGUID>
                       <c15:f>calculs!$W$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>09</c:v>
+                          <c:v>01</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5688,7 +5688,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>10</c:v>
+                      <c:v>02</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -5704,12 +5704,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{186768C5-323B-4276-8280-EF0F9E6EB112}</c15:txfldGUID>
+                      <c15:txfldGUID>{E592038F-C141-419B-A0D3-8EA860EF7E2F}</c15:txfldGUID>
                       <c15:f>calculs!$X$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>10</c:v>
+                          <c:v>02</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5729,7 +5729,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>11</c:v>
+                      <c:v>03</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -5745,12 +5745,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0FA08F81-DF74-44EC-8507-75865FA35A1C}</c15:txfldGUID>
+                      <c15:txfldGUID>{84E8692A-90F0-461F-982E-0B2A437D19EF}</c15:txfldGUID>
                       <c15:f>calculs!$Y$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>11</c:v>
+                          <c:v>03</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5770,7 +5770,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>12</c:v>
+                      <c:v>04</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -5786,12 +5786,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{495885E6-3A0B-4CE2-BB6B-FF7B9590CDDA}</c15:txfldGUID>
+                      <c15:txfldGUID>{E0F89025-4E54-41A5-A881-9F5D4A9AF851}</c15:txfldGUID>
                       <c15:f>calculs!$Z$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>12</c:v>
+                          <c:v>04</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5811,7 +5811,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>13</c:v>
+                      <c:v>05</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -5827,12 +5827,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{501DA072-FC11-4DB3-B93E-1E708DE3D350}</c15:txfldGUID>
+                      <c15:txfldGUID>{3E1E42AF-C9B6-426E-B762-50312A606CFF}</c15:txfldGUID>
                       <c15:f>calculs!$AA$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>13</c:v>
+                          <c:v>05</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5852,7 +5852,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>14</c:v>
+                      <c:v>06</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -5868,12 +5868,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D3C189BB-82AB-43EA-B954-597126B85C55}</c15:txfldGUID>
+                      <c15:txfldGUID>{4D88FBB4-892D-48A8-8BD6-0C7FE41CF627}</c15:txfldGUID>
                       <c15:f>calculs!$AB$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>14</c:v>
+                          <c:v>06</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5893,7 +5893,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>15</c:v>
+                      <c:v>07</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -5909,12 +5909,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{2882140C-13BA-4E23-867C-387C9DB84B40}</c15:txfldGUID>
+                      <c15:txfldGUID>{CEE6D050-8C98-45DE-BA65-C7AC9E8AB6C6}</c15:txfldGUID>
                       <c15:f>calculs!$AC$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>15</c:v>
+                          <c:v>07</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5934,7 +5934,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>16</c:v>
+                      <c:v>08</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -5950,12 +5950,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{3D4CF1CC-35BB-49ED-A9E2-A2610C85B5B5}</c15:txfldGUID>
+                      <c15:txfldGUID>{1A999945-4BE9-409B-B42A-B92BFA5E938B}</c15:txfldGUID>
                       <c15:f>calculs!$AD$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>16</c:v>
+                          <c:v>08</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -5975,7 +5975,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>17</c:v>
+                      <c:v>09</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -5991,12 +5991,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7F1CC564-D065-469D-864E-F9FB96B205FA}</c15:txfldGUID>
+                      <c15:txfldGUID>{FDE8E0DA-3904-4F99-96B4-682D80B6D880}</c15:txfldGUID>
                       <c15:f>calculs!$AE$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>17</c:v>
+                          <c:v>09</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6016,7 +6016,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>18</c:v>
+                      <c:v>10</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -6032,12 +6032,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6A8B8475-3880-4686-9AB7-92E13B5E09EE}</c15:txfldGUID>
+                      <c15:txfldGUID>{56FDADF5-05DC-45B8-9ACA-2810FD49926B}</c15:txfldGUID>
                       <c15:f>calculs!$AF$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>18</c:v>
+                          <c:v>10</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6057,7 +6057,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>19</c:v>
+                      <c:v>11</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -6073,12 +6073,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C583DA36-1384-4D28-A60D-93614FFB1B6B}</c15:txfldGUID>
+                      <c15:txfldGUID>{5B859A97-E438-4696-BE8C-EBC056D71E4A}</c15:txfldGUID>
                       <c15:f>calculs!$AG$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>19</c:v>
+                          <c:v>11</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6098,7 +6098,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>20</c:v>
+                      <c:v>12</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -6114,12 +6114,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{33FDF940-E4F5-4A3E-9EE9-77E24B303AD8}</c15:txfldGUID>
+                      <c15:txfldGUID>{44D16F70-CD2C-472F-8ABF-919CF5201C10}</c15:txfldGUID>
                       <c15:f>calculs!$AH$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>20</c:v>
+                          <c:v>12</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6291,7 +6291,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>LUN</c:v>
+                      <c:v>MAR</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -6307,12 +6307,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7AD9738E-31E7-45A3-8F7B-7D1B65A74CFA}</c15:txfldGUID>
+                      <c15:txfldGUID>{44DA2BFB-6740-4898-819F-044CEEC0A292}</c15:txfldGUID>
                       <c15:f>calculs!$E$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>LUN</c:v>
+                          <c:v>MAR</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6332,7 +6332,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>MAR</c:v>
+                      <c:v>MER</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -6348,12 +6348,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{BDD961EA-F892-499B-AF73-104880764D62}</c15:txfldGUID>
+                      <c15:txfldGUID>{186615EA-826C-4A21-9293-2D6AFC0F40B5}</c15:txfldGUID>
                       <c15:f>calculs!$F$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>MAR</c:v>
+                          <c:v>MER</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6373,7 +6373,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>MER</c:v>
+                      <c:v>JEU</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -6389,12 +6389,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{9456F698-2D4B-4F63-807C-83FB7C47C603}</c15:txfldGUID>
+                      <c15:txfldGUID>{3D637D05-F4BD-4F01-A286-5598D3F592F5}</c15:txfldGUID>
                       <c15:f>calculs!$G$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>MER</c:v>
+                          <c:v>JEU</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6414,7 +6414,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>JEU</c:v>
+                      <c:v>VEN</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -6430,12 +6430,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D1D3716D-1BD2-434D-A5A2-39CD3B0AB10B}</c15:txfldGUID>
+                      <c15:txfldGUID>{0951078F-DF7C-4464-A104-AF9E30AE403B}</c15:txfldGUID>
                       <c15:f>calculs!$H$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>JEU</c:v>
+                          <c:v>VEN</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6455,7 +6455,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>VEN</c:v>
+                      <c:v>SAM</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -6471,12 +6471,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F925A48C-10C6-4FF5-AC29-3A8BEA180A8C}</c15:txfldGUID>
+                      <c15:txfldGUID>{51EFF81F-1DD3-47D6-86E3-5D54FC91E9D6}</c15:txfldGUID>
                       <c15:f>calculs!$I$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>VEN</c:v>
+                          <c:v>SAM</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6496,7 +6496,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>SAM</c:v>
+                      <c:v>DIM</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -6512,12 +6512,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C7F843A0-746E-4A95-87E9-BFECBF077550}</c15:txfldGUID>
+                      <c15:txfldGUID>{65AE3191-541B-464B-ADCB-88BD01560EA3}</c15:txfldGUID>
                       <c15:f>calculs!$J$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>SAM</c:v>
+                          <c:v>DIM</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6537,7 +6537,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>DIM</c:v>
+                      <c:v>LUN</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -6553,12 +6553,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{3C3A9B8D-C2AF-4F70-89D2-35B06B71FE29}</c15:txfldGUID>
+                      <c15:txfldGUID>{F7F1289B-ADD2-4B45-B8E5-5208936AFC09}</c15:txfldGUID>
                       <c15:f>calculs!$K$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>DIM</c:v>
+                          <c:v>LUN</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6578,7 +6578,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>LUN</c:v>
+                      <c:v>MAR</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -6594,12 +6594,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0DF24154-6A56-41AE-BEC3-3FC467EA23C8}</c15:txfldGUID>
+                      <c15:txfldGUID>{ACF80AAC-38B5-47BF-8FA6-7B8F63020791}</c15:txfldGUID>
                       <c15:f>calculs!$L$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>LUN</c:v>
+                          <c:v>MAR</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6619,7 +6619,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>MAR</c:v>
+                      <c:v>MER</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -6635,12 +6635,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C94D33F6-78F8-4258-863D-C1DDC5F12A8D}</c15:txfldGUID>
+                      <c15:txfldGUID>{44F39D1C-F067-41A0-B579-6CFD75ED9655}</c15:txfldGUID>
                       <c15:f>calculs!$M$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>MAR</c:v>
+                          <c:v>MER</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6660,7 +6660,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>MER</c:v>
+                      <c:v>JEU</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -6676,12 +6676,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F3673180-BBF7-4B49-BF4A-A06DEE79D88C}</c15:txfldGUID>
+                      <c15:txfldGUID>{BBDDBDD2-F13B-42D9-B3D3-66A000A04A87}</c15:txfldGUID>
                       <c15:f>calculs!$N$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>MER</c:v>
+                          <c:v>JEU</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6701,7 +6701,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>JEU</c:v>
+                      <c:v>VEN</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -6717,12 +6717,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{8A889656-AB50-4A49-901C-0F60983CFCFE}</c15:txfldGUID>
+                      <c15:txfldGUID>{057F3175-31F5-4F71-80D2-96186C26CCF4}</c15:txfldGUID>
                       <c15:f>calculs!$O$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>JEU</c:v>
+                          <c:v>VEN</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6742,7 +6742,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>VEN</c:v>
+                      <c:v>SAM</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -6758,12 +6758,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C8CE96C4-F800-4CCA-9810-1296041CC640}</c15:txfldGUID>
+                      <c15:txfldGUID>{DCC33B05-B4C8-48BE-BCC4-2BE5CF7BC76A}</c15:txfldGUID>
                       <c15:f>calculs!$P$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>VEN</c:v>
+                          <c:v>SAM</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6783,7 +6783,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>SAM</c:v>
+                      <c:v>DIM</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -6799,12 +6799,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{9DA82F89-06B8-4550-8947-C3CE8B2E01CD}</c15:txfldGUID>
+                      <c15:txfldGUID>{439798D2-D00B-4548-B2EA-72FD2F5E8AFA}</c15:txfldGUID>
                       <c15:f>calculs!$Q$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>SAM</c:v>
+                          <c:v>DIM</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6824,7 +6824,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>DIM</c:v>
+                      <c:v>LUN</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -6840,12 +6840,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{45F963BC-EBFB-4A9A-B929-644894751A37}</c15:txfldGUID>
+                      <c15:txfldGUID>{FAC2EC45-0C62-4F18-B506-8343EEE3A887}</c15:txfldGUID>
                       <c15:f>calculs!$R$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>DIM</c:v>
+                          <c:v>LUN</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6865,7 +6865,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>LUN</c:v>
+                      <c:v>MAR</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -6881,12 +6881,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0070F834-54A8-43A0-AE49-A1E9E80D2E42}</c15:txfldGUID>
+                      <c15:txfldGUID>{D3071462-6EA6-44A4-B0D3-6386B5CE3F45}</c15:txfldGUID>
                       <c15:f>calculs!$S$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>LUN</c:v>
+                          <c:v>MAR</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6906,7 +6906,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>MAR</c:v>
+                      <c:v>MER</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -6922,12 +6922,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0367319B-F3D6-4018-9560-C00C0D2B9434}</c15:txfldGUID>
+                      <c15:txfldGUID>{47863B03-C92A-4641-B0B5-812DD9F07918}</c15:txfldGUID>
                       <c15:f>calculs!$T$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>MAR</c:v>
+                          <c:v>MER</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6947,7 +6947,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>MER</c:v>
+                      <c:v>JEU</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -6963,12 +6963,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5B0EA192-E7BE-4584-875E-530E9D9DCC33}</c15:txfldGUID>
+                      <c15:txfldGUID>{A4819499-8311-4D04-A412-202824384AB9}</c15:txfldGUID>
                       <c15:f>calculs!$U$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>MER</c:v>
+                          <c:v>JEU</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -6988,7 +6988,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>JEU</c:v>
+                      <c:v>VEN</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -7004,12 +7004,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{CAB97882-4811-409C-8476-701FA0A57BB8}</c15:txfldGUID>
+                      <c15:txfldGUID>{25E0AB7F-E345-427B-B844-0D7FDE777FD3}</c15:txfldGUID>
                       <c15:f>calculs!$V$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>JEU</c:v>
+                          <c:v>VEN</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -7029,7 +7029,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>VEN</c:v>
+                      <c:v>SAM</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -7045,12 +7045,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4CBE1981-4C1F-449C-A4E0-A00B9E513992}</c15:txfldGUID>
+                      <c15:txfldGUID>{D704BEC3-0DFF-48E8-88FC-8ED8E86FFB30}</c15:txfldGUID>
                       <c15:f>calculs!$W$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>VEN</c:v>
+                          <c:v>SAM</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -7070,7 +7070,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>SAM</c:v>
+                      <c:v>DIM</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -7086,12 +7086,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{2F16E81C-898E-42AB-973E-A948B07DA336}</c15:txfldGUID>
+                      <c15:txfldGUID>{017195D6-58E4-43C6-9E7F-D001114459CD}</c15:txfldGUID>
                       <c15:f>calculs!$X$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>SAM</c:v>
+                          <c:v>DIM</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -7111,7 +7111,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>DIM</c:v>
+                      <c:v>LUN</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -7127,12 +7127,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{60D0A5FA-E65F-4066-BE5C-4DBFE4907DFD}</c15:txfldGUID>
+                      <c15:txfldGUID>{53040D58-9CAA-4F1C-A788-A1753DE176B2}</c15:txfldGUID>
                       <c15:f>calculs!$Y$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>DIM</c:v>
+                          <c:v>LUN</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -7152,7 +7152,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>LUN</c:v>
+                      <c:v>MAR</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -7168,12 +7168,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{81170B87-C492-4D4F-8481-10EC79338BC3}</c15:txfldGUID>
+                      <c15:txfldGUID>{9F5F0BC7-CC01-49A0-8B84-F3EF40BC06A1}</c15:txfldGUID>
                       <c15:f>calculs!$Z$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>LUN</c:v>
+                          <c:v>MAR</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -7193,7 +7193,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>MAR</c:v>
+                      <c:v>MER</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -7209,12 +7209,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{87EDAF4D-ED67-44A6-8B20-B4C4EF64D7C3}</c15:txfldGUID>
+                      <c15:txfldGUID>{6EB51E33-6A02-427F-80A5-26BE19D333C6}</c15:txfldGUID>
                       <c15:f>calculs!$AA$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>MAR</c:v>
+                          <c:v>MER</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -7234,7 +7234,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>MER</c:v>
+                      <c:v>JEU</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -7250,12 +7250,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E4580DA9-9DC6-4C79-9185-62427F7D3102}</c15:txfldGUID>
+                      <c15:txfldGUID>{70E2AC9C-90E1-4FF2-9A7A-24031F1A04B5}</c15:txfldGUID>
                       <c15:f>calculs!$AB$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>MER</c:v>
+                          <c:v>JEU</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -7275,7 +7275,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>JEU</c:v>
+                      <c:v>VEN</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -7291,12 +7291,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5797800C-BDC4-47C7-8774-509282BF7EAB}</c15:txfldGUID>
+                      <c15:txfldGUID>{B8855FD1-B91F-4A7A-BBC2-3E7BFF064BE8}</c15:txfldGUID>
                       <c15:f>calculs!$AC$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>JEU</c:v>
+                          <c:v>VEN</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -7316,7 +7316,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>VEN</c:v>
+                      <c:v>SAM</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -7332,12 +7332,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{89D600C9-FD47-4236-B913-46E7251B2907}</c15:txfldGUID>
+                      <c15:txfldGUID>{9BD36323-D74A-45E8-97EA-F2FBF47206A4}</c15:txfldGUID>
                       <c15:f>calculs!$AD$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>VEN</c:v>
+                          <c:v>SAM</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -7357,7 +7357,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>SAM</c:v>
+                      <c:v>DIM</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -7373,12 +7373,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{062F4DCE-207E-4838-B7F9-601357F87F8A}</c15:txfldGUID>
+                      <c15:txfldGUID>{35E4104B-1A58-4747-9F44-70FCFE55EEE3}</c15:txfldGUID>
                       <c15:f>calculs!$AE$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>SAM</c:v>
+                          <c:v>DIM</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -7398,7 +7398,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>DIM</c:v>
+                      <c:v>LUN</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -7414,12 +7414,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{69EB14E0-7BE3-4458-9E65-64DD81739E2B}</c15:txfldGUID>
+                      <c15:txfldGUID>{278AB2A2-49B5-4CE5-8261-657D8EF72586}</c15:txfldGUID>
                       <c15:f>calculs!$AF$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>DIM</c:v>
+                          <c:v>LUN</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -7439,7 +7439,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>LUN</c:v>
+                      <c:v>MAR</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -7455,12 +7455,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{40E1ECF6-2705-413F-A16B-F6A8BFAD4899}</c15:txfldGUID>
+                      <c15:txfldGUID>{A73AF105-B85C-4F19-AA3C-5C1FE72CC881}</c15:txfldGUID>
                       <c15:f>calculs!$AG$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>LUN</c:v>
+                          <c:v>MAR</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -7480,7 +7480,7 @@
                   <c:strCache>
                     <c:ptCount val="1"/>
                     <c:pt idx="0">
-                      <c:v>MAR</c:v>
+                      <c:v>MER</c:v>
                     </c:pt>
                   </c:strCache>
                 </c:strRef>
@@ -7496,12 +7496,12 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{2763C694-4991-4153-AA36-FD78E0BEF586}</c15:txfldGUID>
+                      <c15:txfldGUID>{D3AF960E-F7CB-42B7-87F2-AD5983ED78FB}</c15:txfldGUID>
                       <c15:f>calculs!$AH$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>MAR</c:v>
+                          <c:v>MER</c:v>
                         </c:pt>
                       </c15:dlblFieldTableCache>
                     </c15:dlblFTEntry>
@@ -7658,7 +7658,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mars 2021 - Bande supérieure</c:v>
+                  <c:v>avr 2021 - Bande supérieure</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7713,28 +7713,28 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>#N/A</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>#N/A</c:v>
@@ -7791,7 +7791,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>avr 2021 - Bande supérieure</c:v>
+                  <c:v>mai 2021 - Bande supérieure</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7846,28 +7846,28 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>13</c:v>
@@ -8006,7 +8006,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="DécalageFenêtre" horiz="1" max="500" noThreeD="1" page="7" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="DécalageFenêtre" horiz="1" max="500" noThreeD="1" page="7" val="22"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8434,8 +8434,8 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8785,7 +8785,7 @@
       </c>
       <c r="D3" s="1">
         <f ca="1">TODAY()</f>
-        <v>44271</v>
+        <v>44273</v>
       </c>
       <c r="E3" s="10"/>
     </row>
@@ -8827,7 +8827,7 @@
       </c>
       <c r="D9">
         <f>SUMPRODUCT( ((Activités[DÉBUT]&gt;=FenêtreDateDébut)+(Activités[FIN]&gt;=FenêtreDateDébut)&gt;0)*(Activités[DÉBUT]&lt;=(FenêtreDateDébut+JoursFenêtre-1)) )</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" t="e">
         <f>NA()</f>
@@ -8846,7 +8846,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D11">
         <f>D10-MIN(D10,D9)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" t="e">
         <f>NA()</f>
@@ -8877,7 +8877,7 @@
       <c r="C15" s="10"/>
       <c r="E15">
         <f t="array" ref="E15">INDEX(Activités[RÉFÉRENCE],MATCH(1, ((Activités[DÉBUT]&gt;=FenêtreDateDébut)+(Activités[FIN]&gt;=FenêtreDateDébut)&gt;0)*(Activités[DÉBUT]&lt;=(FenêtreDateDébut+JoursFenêtre-1)), 0))</f>
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="F15" t="e">
         <f t="shared" ref="F15:F23" ca="1" si="0">OFFSET(E15,-$D$11,)</f>
@@ -8888,7 +8888,7 @@
       <c r="C16" s="10"/>
       <c r="E16">
         <f t="array" ref="E16">INDEX(Activités[RÉFÉRENCE],MATCH(1, (Activités[RÉFÉRENCE]&gt;E15)*((Activités[DÉBUT]&gt;=FenêtreDateDébut)+(Activités[FIN]&gt;=FenêtreDateDébut)&gt;0)*(Activités[DÉBUT]&lt;=(FenêtreDateDébut+JoursFenêtre-1)), 0))</f>
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="F16" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -8899,7 +8899,7 @@
       <c r="C17" s="10"/>
       <c r="E17">
         <f t="array" ref="E17">INDEX(Activités[RÉFÉRENCE],MATCH(1, (Activités[RÉFÉRENCE]&gt;E16)*((Activités[DÉBUT]&gt;=FenêtreDateDébut)+(Activités[FIN]&gt;=FenêtreDateDébut)&gt;0)*(Activités[DÉBUT]&lt;=(FenêtreDateDébut+JoursFenêtre-1)), 0))</f>
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="F17" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -8909,7 +8909,7 @@
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="E18">
         <f t="array" ref="E18">INDEX(Activités[RÉFÉRENCE],MATCH(1, (Activités[RÉFÉRENCE]&gt;E17)*((Activités[DÉBUT]&gt;=FenêtreDateDébut)+(Activités[FIN]&gt;=FenêtreDateDébut)&gt;0)*(Activités[DÉBUT]&lt;=(FenêtreDateDébut+JoursFenêtre-1)), 0))</f>
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="F18" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -8917,13 +8917,13 @@
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="E19">
+      <c r="E19" t="e">
         <f t="array" ref="E19">INDEX(Activités[RÉFÉRENCE],MATCH(1, (Activités[RÉFÉRENCE]&gt;E18)*((Activités[DÉBUT]&gt;=FenêtreDateDébut)+(Activités[FIN]&gt;=FenêtreDateDébut)&gt;0)*(Activités[DÉBUT]&lt;=(FenêtreDateDébut+JoursFenêtre-1)), 0))</f>
-        <v>-3</v>
-      </c>
-      <c r="F19">
+        <v>#N/A</v>
+      </c>
+      <c r="F19" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>-7</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.25">
@@ -8933,7 +8933,7 @@
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="0"/>
-        <v>-6</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
@@ -8943,7 +8943,7 @@
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="0"/>
-        <v>-5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="0"/>
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.25">
@@ -8963,7 +8963,7 @@
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:35" ht="30" x14ac:dyDescent="0.25">
@@ -8972,7 +8972,7 @@
       </c>
       <c r="D25" s="1">
         <f>DateDébut+DécalageFenêtre</f>
-        <v>44277</v>
+        <v>44299</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.25">
@@ -8980,7 +8980,7 @@
         <v>25</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.25">
@@ -9015,127 +9015,127 @@
       </c>
       <c r="E31" s="1">
         <f>FenêtreDateDébut</f>
-        <v>44277</v>
+        <v>44299</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" ref="F31:AI31" si="1">E31+1</f>
-        <v>44278</v>
+        <v>44300</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="1"/>
-        <v>44279</v>
+        <v>44301</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="1"/>
-        <v>44280</v>
+        <v>44302</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="1"/>
-        <v>44281</v>
+        <v>44303</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="1"/>
-        <v>44282</v>
+        <v>44304</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="1"/>
-        <v>44283</v>
+        <v>44305</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" si="1"/>
-        <v>44284</v>
+        <v>44306</v>
       </c>
       <c r="M31" s="1">
         <f t="shared" si="1"/>
-        <v>44285</v>
+        <v>44307</v>
       </c>
       <c r="N31" s="1">
         <f t="shared" si="1"/>
-        <v>44286</v>
+        <v>44308</v>
       </c>
       <c r="O31" s="1">
         <f t="shared" si="1"/>
-        <v>44287</v>
+        <v>44309</v>
       </c>
       <c r="P31" s="1">
         <f t="shared" si="1"/>
-        <v>44288</v>
+        <v>44310</v>
       </c>
       <c r="Q31" s="1">
         <f t="shared" si="1"/>
-        <v>44289</v>
+        <v>44311</v>
       </c>
       <c r="R31" s="1">
         <f t="shared" si="1"/>
-        <v>44290</v>
+        <v>44312</v>
       </c>
       <c r="S31" s="1">
         <f t="shared" si="1"/>
-        <v>44291</v>
+        <v>44313</v>
       </c>
       <c r="T31" s="1">
         <f t="shared" si="1"/>
-        <v>44292</v>
+        <v>44314</v>
       </c>
       <c r="U31" s="1">
         <f t="shared" si="1"/>
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="V31" s="1">
         <f t="shared" si="1"/>
-        <v>44294</v>
+        <v>44316</v>
       </c>
       <c r="W31" s="1">
         <f t="shared" si="1"/>
-        <v>44295</v>
+        <v>44317</v>
       </c>
       <c r="X31" s="1">
         <f t="shared" si="1"/>
-        <v>44296</v>
+        <v>44318</v>
       </c>
       <c r="Y31" s="1">
         <f t="shared" si="1"/>
-        <v>44297</v>
+        <v>44319</v>
       </c>
       <c r="Z31" s="1">
         <f t="shared" si="1"/>
-        <v>44298</v>
+        <v>44320</v>
       </c>
       <c r="AA31" s="1">
         <f t="shared" si="1"/>
-        <v>44299</v>
+        <v>44321</v>
       </c>
       <c r="AB31" s="1">
         <f t="shared" si="1"/>
-        <v>44300</v>
+        <v>44322</v>
       </c>
       <c r="AC31" s="1">
         <f t="shared" si="1"/>
-        <v>44301</v>
+        <v>44323</v>
       </c>
       <c r="AD31" s="1">
         <f t="shared" si="1"/>
-        <v>44302</v>
+        <v>44324</v>
       </c>
       <c r="AE31" s="1">
         <f t="shared" si="1"/>
-        <v>44303</v>
+        <v>44325</v>
       </c>
       <c r="AF31" s="1">
         <f t="shared" si="1"/>
-        <v>44304</v>
+        <v>44326</v>
       </c>
       <c r="AG31" s="1">
         <f t="shared" si="1"/>
-        <v>44305</v>
+        <v>44327</v>
       </c>
       <c r="AH31" s="1">
         <f t="shared" si="1"/>
-        <v>44306</v>
+        <v>44328</v>
       </c>
       <c r="AI31" s="1">
         <f t="shared" si="1"/>
-        <v>44307</v>
+        <v>44329</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.25">
@@ -9709,13 +9709,13 @@
       <c r="B36">
         <v>5</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>-7</v>
-      </c>
-      <c r="D36" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D36" t="e">
         <f ca="1">INDEX(Activités[ACTIVITÉ],MATCH($C36,Activités[RÉFÉRENCE],0))</f>
-        <v>Début du projet</v>
+        <v>#N/A</v>
       </c>
       <c r="E36" t="e">
         <f ca="1">CalcGrille</f>
@@ -9729,9 +9729,9 @@
         <f ca="1">CalcGrille</f>
         <v>#N/A</v>
       </c>
-      <c r="H36">
-        <f ca="1">CalcGrille</f>
-        <v>7.3000000000000007</v>
+      <c r="H36" t="e">
+        <f ca="1">CalcGrille</f>
+        <v>#N/A</v>
       </c>
       <c r="I36" t="e">
         <f ca="1">CalcGrille</f>
@@ -9852,11 +9852,11 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="2"/>
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="D37" t="str">
         <f ca="1">INDEX(Activités[ACTIVITÉ],MATCH($C37,Activités[RÉFÉRENCE],0))</f>
-        <v>Backend complet</v>
+        <v>Jalon 4</v>
       </c>
       <c r="E37" t="e">
         <f ca="1">CalcGrille</f>
@@ -9886,17 +9886,17 @@
         <f ca="1">CalcGrille</f>
         <v>#N/A</v>
       </c>
-      <c r="L37" t="e">
-        <f ca="1">CalcGrille</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M37" t="e">
-        <f ca="1">CalcGrille</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N37" t="e">
-        <f ca="1">CalcGrille</f>
-        <v>#N/A</v>
+      <c r="L37">
+        <f ca="1">CalcGrille</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="M37">
+        <f ca="1">CalcGrille</f>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="N37">
+        <f ca="1">CalcGrille</f>
+        <v>6.3000000000000007</v>
       </c>
       <c r="O37" t="e">
         <f ca="1">CalcGrille</f>
@@ -9910,21 +9910,21 @@
         <f ca="1">CalcGrille</f>
         <v>#N/A</v>
       </c>
-      <c r="R37">
-        <f ca="1">CalcGrille</f>
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="S37">
-        <f ca="1">CalcGrille</f>
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="T37">
-        <f ca="1">CalcGrille</f>
-        <v>6.3000000000000007</v>
-      </c>
-      <c r="U37">
-        <f ca="1">CalcGrille</f>
-        <v>6.3000000000000007</v>
+      <c r="R37" t="e">
+        <f ca="1">CalcGrille</f>
+        <v>#N/A</v>
+      </c>
+      <c r="S37" t="e">
+        <f ca="1">CalcGrille</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T37" t="e">
+        <f ca="1">CalcGrille</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U37" t="e">
+        <f ca="1">CalcGrille</f>
+        <v>#N/A</v>
       </c>
       <c r="V37" t="e">
         <f ca="1">CalcGrille</f>
@@ -9993,11 +9993,11 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="2"/>
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="D38" t="str">
         <f ca="1">INDEX(Activités[ACTIVITÉ],MATCH($C38,Activités[RÉFÉRENCE],0))</f>
-        <v>Jalon 2</v>
+        <v>Jalon 5</v>
       </c>
       <c r="E38" t="e">
         <f ca="1">CalcGrille</f>
@@ -10055,29 +10055,29 @@
         <f ca="1">CalcGrille</f>
         <v>#N/A</v>
       </c>
-      <c r="S38">
+      <c r="S38" t="e">
+        <f ca="1">CalcGrille</f>
+        <v>#N/A</v>
+      </c>
+      <c r="T38" t="e">
+        <f ca="1">CalcGrille</f>
+        <v>#N/A</v>
+      </c>
+      <c r="U38" t="e">
+        <f ca="1">CalcGrille</f>
+        <v>#N/A</v>
+      </c>
+      <c r="V38">
         <f ca="1">CalcGrille</f>
         <v>5.3000000000000007</v>
       </c>
-      <c r="T38">
+      <c r="W38">
         <f ca="1">CalcGrille</f>
         <v>5.3000000000000007</v>
       </c>
-      <c r="U38">
+      <c r="X38">
         <f ca="1">CalcGrille</f>
         <v>5.3000000000000007</v>
-      </c>
-      <c r="V38">
-        <f ca="1">CalcGrille</f>
-        <v>5.3000000000000007</v>
-      </c>
-      <c r="W38" t="e">
-        <f ca="1">CalcGrille</f>
-        <v>#N/A</v>
-      </c>
-      <c r="X38" t="e">
-        <f ca="1">CalcGrille</f>
-        <v>#N/A</v>
       </c>
       <c r="Y38" t="e">
         <f ca="1">CalcGrille</f>
@@ -10134,11 +10134,11 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="2"/>
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="D39" t="str">
         <f ca="1">INDEX(Activités[ACTIVITÉ],MATCH($C39,Activités[RÉFÉRENCE],0))</f>
-        <v>Jalon 3</v>
+        <v>Jalon 6</v>
       </c>
       <c r="E39" t="e">
         <f ca="1">CalcGrille</f>
@@ -10216,49 +10216,49 @@
         <f ca="1">CalcGrille</f>
         <v>#N/A</v>
       </c>
-      <c r="X39">
+      <c r="X39" t="e">
+        <f ca="1">CalcGrille</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Y39" t="e">
+        <f ca="1">CalcGrille</f>
+        <v>#N/A</v>
+      </c>
+      <c r="Z39" t="e">
+        <f ca="1">CalcGrille</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AA39" t="e">
+        <f ca="1">CalcGrille</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AB39" t="e">
+        <f ca="1">CalcGrille</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AC39" t="e">
+        <f ca="1">CalcGrille</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AD39" t="e">
+        <f ca="1">CalcGrille</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AE39" t="e">
+        <f ca="1">CalcGrille</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AF39">
         <f ca="1">CalcGrille</f>
         <v>4.3000000000000007</v>
       </c>
-      <c r="Y39" t="e">
-        <f ca="1">CalcGrille</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Z39" t="e">
-        <f ca="1">CalcGrille</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AA39" t="e">
-        <f ca="1">CalcGrille</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AB39" t="e">
-        <f ca="1">CalcGrille</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AC39" t="e">
-        <f ca="1">CalcGrille</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AD39" t="e">
-        <f ca="1">CalcGrille</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AE39" t="e">
-        <f ca="1">CalcGrille</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AF39" t="e">
-        <f ca="1">CalcGrille</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AG39" t="e">
-        <f ca="1">CalcGrille</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AH39" t="e">
-        <f ca="1">CalcGrille</f>
-        <v>#N/A</v>
+      <c r="AG39">
+        <f ca="1">CalcGrille</f>
+        <v>4.3000000000000007</v>
+      </c>
+      <c r="AH39">
+        <f ca="1">CalcGrille</f>
+        <v>4.3000000000000007</v>
       </c>
       <c r="AI39" t="e">
         <f ca="1">CalcGrille</f>
@@ -10275,11 +10275,11 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="2"/>
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="str">
         <f ca="1">INDEX(Activités[ACTIVITÉ],MATCH($C40,Activités[RÉFÉRENCE],0))</f>
-        <v>Jalon 4</v>
+        <v>Fin du projet</v>
       </c>
       <c r="E40" t="e">
         <f ca="1">CalcGrille</f>
@@ -10389,143 +10389,143 @@
         <f ca="1">CalcGrille</f>
         <v>#N/A</v>
       </c>
-      <c r="AF40" t="e">
-        <f ca="1">CalcGrille</f>
-        <v>#N/A</v>
+      <c r="AF40">
+        <f ca="1">CalcGrille</f>
+        <v>3.3000000000000007</v>
       </c>
       <c r="AG40" t="e">
         <f ca="1">CalcGrille</f>
         <v>#N/A</v>
       </c>
-      <c r="AH40">
-        <f ca="1">CalcGrille</f>
-        <v>3.3000000000000007</v>
-      </c>
-      <c r="AI40">
-        <f ca="1">CalcGrille</f>
-        <v>3.3000000000000007</v>
+      <c r="AH40" t="e">
+        <f ca="1">CalcGrille</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AI40" t="e">
+        <f ca="1">CalcGrille</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="E43" s="1">
         <f>E31</f>
-        <v>44277</v>
+        <v>44299</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" ref="F43:AH43" si="4">F31</f>
-        <v>44278</v>
+        <v>44300</v>
       </c>
       <c r="G43" s="1">
         <f t="shared" si="4"/>
-        <v>44279</v>
+        <v>44301</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" si="4"/>
-        <v>44280</v>
+        <v>44302</v>
       </c>
       <c r="I43" s="1">
         <f t="shared" si="4"/>
-        <v>44281</v>
+        <v>44303</v>
       </c>
       <c r="J43" s="1">
         <f t="shared" si="4"/>
-        <v>44282</v>
+        <v>44304</v>
       </c>
       <c r="K43" s="1">
         <f t="shared" si="4"/>
-        <v>44283</v>
+        <v>44305</v>
       </c>
       <c r="L43" s="1">
         <f t="shared" si="4"/>
-        <v>44284</v>
+        <v>44306</v>
       </c>
       <c r="M43" s="1">
         <f t="shared" si="4"/>
-        <v>44285</v>
+        <v>44307</v>
       </c>
       <c r="N43" s="1">
         <f t="shared" si="4"/>
-        <v>44286</v>
+        <v>44308</v>
       </c>
       <c r="O43" s="1">
         <f t="shared" si="4"/>
-        <v>44287</v>
+        <v>44309</v>
       </c>
       <c r="P43" s="1">
         <f t="shared" si="4"/>
-        <v>44288</v>
+        <v>44310</v>
       </c>
       <c r="Q43" s="1">
         <f t="shared" si="4"/>
-        <v>44289</v>
+        <v>44311</v>
       </c>
       <c r="R43" s="1">
         <f t="shared" si="4"/>
-        <v>44290</v>
+        <v>44312</v>
       </c>
       <c r="S43" s="1">
         <f t="shared" si="4"/>
-        <v>44291</v>
+        <v>44313</v>
       </c>
       <c r="T43" s="1">
         <f t="shared" si="4"/>
-        <v>44292</v>
+        <v>44314</v>
       </c>
       <c r="U43" s="1">
         <f t="shared" si="4"/>
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="V43" s="1">
         <f t="shared" si="4"/>
-        <v>44294</v>
+        <v>44316</v>
       </c>
       <c r="W43" s="1">
         <f t="shared" si="4"/>
-        <v>44295</v>
+        <v>44317</v>
       </c>
       <c r="X43" s="1">
         <f t="shared" si="4"/>
-        <v>44296</v>
+        <v>44318</v>
       </c>
       <c r="Y43" s="1">
         <f t="shared" si="4"/>
-        <v>44297</v>
+        <v>44319</v>
       </c>
       <c r="Z43" s="1">
         <f t="shared" si="4"/>
-        <v>44298</v>
+        <v>44320</v>
       </c>
       <c r="AA43" s="1">
         <f t="shared" si="4"/>
-        <v>44299</v>
+        <v>44321</v>
       </c>
       <c r="AB43" s="1">
         <f t="shared" si="4"/>
-        <v>44300</v>
+        <v>44322</v>
       </c>
       <c r="AC43" s="1">
         <f t="shared" si="4"/>
-        <v>44301</v>
+        <v>44323</v>
       </c>
       <c r="AD43" s="1">
         <f t="shared" si="4"/>
-        <v>44302</v>
+        <v>44324</v>
       </c>
       <c r="AE43" s="1">
         <f t="shared" si="4"/>
-        <v>44303</v>
+        <v>44325</v>
       </c>
       <c r="AF43" s="1">
         <f t="shared" si="4"/>
-        <v>44304</v>
+        <v>44326</v>
       </c>
       <c r="AG43" s="1">
         <f t="shared" si="4"/>
-        <v>44305</v>
+        <v>44327</v>
       </c>
       <c r="AH43" s="1">
         <f t="shared" si="4"/>
-        <v>44306</v>
+        <v>44328</v>
       </c>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.25">
@@ -11049,13 +11049,13 @@
       </c>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="C48">
+      <c r="C48" t="e">
         <f t="shared" ca="1" si="6"/>
-        <v>-7</v>
-      </c>
-      <c r="D48" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D48" t="e">
         <f ca="1">UPPER(INDEX(Activités[ACTIVITÉ],MATCH($C48,Activités[RÉFÉRENCE],0)))</f>
-        <v>DÉBUT DU PROJET</v>
+        <v>#N/A</v>
       </c>
       <c r="E48" t="e">
         <f t="shared" ref="E48:AH48" ca="1" si="10">IF(ISERROR(F36),E36,NA())</f>
@@ -11069,9 +11069,9 @@
         <f t="shared" ca="1" si="10"/>
         <v>#N/A</v>
       </c>
-      <c r="H48">
+      <c r="H48" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>7.3000000000000007</v>
+        <v>#N/A</v>
       </c>
       <c r="I48" t="e">
         <f t="shared" ca="1" si="10"/>
@@ -11178,14 +11178,14 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="3:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C49">
         <f t="shared" ca="1" si="6"/>
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="D49" t="str">
         <f ca="1">UPPER(INDEX(Activités[ACTIVITÉ],MATCH($C49,Activités[RÉFÉRENCE],0)))</f>
-        <v>BACKEND COMPLET</v>
+        <v>JALON 4</v>
       </c>
       <c r="E49" t="e">
         <f t="shared" ref="E49:AH49" ca="1" si="11">IF(ISERROR(F37),E37,NA())</f>
@@ -11223,9 +11223,9 @@
         <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="N49" t="e">
+      <c r="N49">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
+        <v>6.3000000000000007</v>
       </c>
       <c r="O49" t="e">
         <f t="shared" ca="1" si="11"/>
@@ -11251,9 +11251,9 @@
         <f t="shared" ca="1" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="U49">
+      <c r="U49" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>6.3000000000000007</v>
+        <v>#N/A</v>
       </c>
       <c r="V49" t="e">
         <f t="shared" ca="1" si="11"/>
@@ -11311,11 +11311,11 @@
     <row r="50" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C50">
         <f t="shared" ca="1" si="6"/>
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="D50" t="str">
         <f ca="1">UPPER(INDEX(Activités[ACTIVITÉ],MATCH($C50,Activités[RÉFÉRENCE],0)))</f>
-        <v>JALON 2</v>
+        <v>JALON 5</v>
       </c>
       <c r="E50" t="e">
         <f t="shared" ref="E50:AH50" ca="1" si="12">IF(ISERROR(F38),E38,NA())</f>
@@ -11385,17 +11385,17 @@
         <f t="shared" ca="1" si="12"/>
         <v>#N/A</v>
       </c>
-      <c r="V50">
+      <c r="V50" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W50" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X50">
         <f t="shared" ca="1" si="12"/>
         <v>5.3000000000000007</v>
-      </c>
-      <c r="W50" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X50" t="e">
-        <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
       </c>
       <c r="Y50" t="e">
         <f t="shared" ca="1" si="12"/>
@@ -11441,11 +11441,11 @@
     <row r="51" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C51">
         <f t="shared" ca="1" si="6"/>
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="D51" t="str">
         <f ca="1">UPPER(INDEX(Activités[ACTIVITÉ],MATCH($C51,Activités[RÉFÉRENCE],0)))</f>
-        <v>JALON 3</v>
+        <v>JALON 6</v>
       </c>
       <c r="E51" t="e">
         <f t="shared" ref="E51:AH51" ca="1" si="13">IF(ISERROR(F39),E39,NA())</f>
@@ -11523,59 +11523,59 @@
         <f t="shared" ca="1" si="13"/>
         <v>#N/A</v>
       </c>
-      <c r="X51">
+      <c r="X51" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y51" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z51" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA51" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB51" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC51" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD51" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE51" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF51" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AG51" t="e">
+        <f t="shared" ca="1" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AH51">
         <f t="shared" ca="1" si="13"/>
         <v>4.3000000000000007</v>
-      </c>
-      <c r="Y51" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z51" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA51" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB51" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC51" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD51" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE51" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF51" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AG51" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AH51" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#N/A</v>
       </c>
     </row>
     <row r="52" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C52">
         <f t="shared" ca="1" si="6"/>
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="str">
         <f ca="1">UPPER(INDEX(Activités[ACTIVITÉ],MATCH($C52,Activités[RÉFÉRENCE],0)))</f>
-        <v>JALON 4</v>
+        <v>FIN DU PROJET</v>
       </c>
       <c r="E52" t="e">
         <f t="shared" ref="E52:AH52" ca="1" si="14">IF(ISERROR(F40),E40,NA())</f>
@@ -11685,9 +11685,9 @@
         <f t="shared" ca="1" si="14"/>
         <v>#N/A</v>
       </c>
-      <c r="AF52" t="e">
+      <c r="AF52">
         <f t="shared" ca="1" si="14"/>
-        <v>#N/A</v>
+        <v>3.3000000000000007</v>
       </c>
       <c r="AG52" t="e">
         <f t="shared" ca="1" si="14"/>
@@ -11701,123 +11701,123 @@
     <row r="55" spans="3:34" x14ac:dyDescent="0.25">
       <c r="E55" s="1">
         <f>E31</f>
-        <v>44277</v>
+        <v>44299</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" ref="F55:AH55" si="15">F31</f>
-        <v>44278</v>
+        <v>44300</v>
       </c>
       <c r="G55" s="1">
         <f t="shared" si="15"/>
-        <v>44279</v>
+        <v>44301</v>
       </c>
       <c r="H55" s="1">
         <f t="shared" si="15"/>
-        <v>44280</v>
+        <v>44302</v>
       </c>
       <c r="I55" s="1">
         <f t="shared" si="15"/>
-        <v>44281</v>
+        <v>44303</v>
       </c>
       <c r="J55" s="1">
         <f t="shared" si="15"/>
-        <v>44282</v>
+        <v>44304</v>
       </c>
       <c r="K55" s="1">
         <f t="shared" si="15"/>
-        <v>44283</v>
+        <v>44305</v>
       </c>
       <c r="L55" s="1">
         <f t="shared" si="15"/>
-        <v>44284</v>
+        <v>44306</v>
       </c>
       <c r="M55" s="1">
         <f t="shared" si="15"/>
-        <v>44285</v>
+        <v>44307</v>
       </c>
       <c r="N55" s="1">
         <f t="shared" si="15"/>
-        <v>44286</v>
+        <v>44308</v>
       </c>
       <c r="O55" s="1">
         <f t="shared" si="15"/>
-        <v>44287</v>
+        <v>44309</v>
       </c>
       <c r="P55" s="1">
         <f t="shared" si="15"/>
-        <v>44288</v>
+        <v>44310</v>
       </c>
       <c r="Q55" s="1">
         <f t="shared" si="15"/>
-        <v>44289</v>
+        <v>44311</v>
       </c>
       <c r="R55" s="1">
         <f t="shared" si="15"/>
-        <v>44290</v>
+        <v>44312</v>
       </c>
       <c r="S55" s="1">
         <f t="shared" si="15"/>
-        <v>44291</v>
+        <v>44313</v>
       </c>
       <c r="T55" s="1">
         <f t="shared" si="15"/>
-        <v>44292</v>
+        <v>44314</v>
       </c>
       <c r="U55" s="1">
         <f t="shared" si="15"/>
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="V55" s="1">
         <f t="shared" si="15"/>
-        <v>44294</v>
+        <v>44316</v>
       </c>
       <c r="W55" s="1">
         <f t="shared" si="15"/>
-        <v>44295</v>
+        <v>44317</v>
       </c>
       <c r="X55" s="1">
         <f t="shared" si="15"/>
-        <v>44296</v>
+        <v>44318</v>
       </c>
       <c r="Y55" s="1">
         <f t="shared" si="15"/>
-        <v>44297</v>
+        <v>44319</v>
       </c>
       <c r="Z55" s="1">
         <f t="shared" si="15"/>
-        <v>44298</v>
+        <v>44320</v>
       </c>
       <c r="AA55" s="1">
         <f t="shared" si="15"/>
-        <v>44299</v>
+        <v>44321</v>
       </c>
       <c r="AB55" s="1">
         <f t="shared" si="15"/>
-        <v>44300</v>
+        <v>44322</v>
       </c>
       <c r="AC55" s="1">
         <f t="shared" si="15"/>
-        <v>44301</v>
+        <v>44323</v>
       </c>
       <c r="AD55" s="1">
         <f t="shared" si="15"/>
-        <v>44302</v>
+        <v>44324</v>
       </c>
       <c r="AE55" s="1">
         <f t="shared" si="15"/>
-        <v>44303</v>
+        <v>44325</v>
       </c>
       <c r="AF55" s="1">
         <f t="shared" si="15"/>
-        <v>44304</v>
+        <v>44326</v>
       </c>
       <c r="AG55" s="1">
         <f t="shared" si="15"/>
-        <v>44305</v>
+        <v>44327</v>
       </c>
       <c r="AH55" s="1">
         <f t="shared" si="15"/>
-        <v>44306</v>
+        <v>44328</v>
       </c>
     </row>
     <row r="56" spans="3:34" x14ac:dyDescent="0.25">
@@ -11948,7 +11948,7 @@
     <row r="58" spans="3:34" x14ac:dyDescent="0.25">
       <c r="D58" s="12">
         <f>DATE(YEAR(MIN(E55:AH55)),MONTH(MIN(E55:AH55)),1)</f>
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="E58">
         <f>IF(MEDIAN($D58,E$55,EOMONTH($D58,0))=E$55,0.5,NA())</f>
@@ -11990,37 +11990,37 @@
         <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
-      <c r="O58" t="e">
+      <c r="O58">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P58" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="P58">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q58" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="Q58">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R58" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="R58">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S58" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="S58">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T58" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="T58">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U58" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="U58">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V58" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="V58">
         <f t="shared" si="17"/>
-        <v>#N/A</v>
+        <v>0.5</v>
       </c>
       <c r="W58" t="e">
         <f t="shared" si="17"/>
@@ -12071,10 +12071,10 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="3:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:34" ht="30" x14ac:dyDescent="0.25">
       <c r="D59" s="12" t="str">
         <f>TEXT(D58,"mmm aaaa") &amp; " - Bande supérieure"</f>
-        <v>mars 2021 - Bande supérieure</v>
+        <v>avr 2021 - Bande supérieure</v>
       </c>
       <c r="E59">
         <f>E58+12.5</f>
@@ -12116,37 +12116,37 @@
         <f t="shared" si="18"/>
         <v>13</v>
       </c>
-      <c r="O59" t="e">
+      <c r="O59">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P59" t="e">
+        <v>13</v>
+      </c>
+      <c r="P59">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q59" t="e">
+        <v>13</v>
+      </c>
+      <c r="Q59">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R59" t="e">
+        <v>13</v>
+      </c>
+      <c r="R59">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S59" t="e">
+        <v>13</v>
+      </c>
+      <c r="S59">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T59" t="e">
+        <v>13</v>
+      </c>
+      <c r="T59">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U59" t="e">
+        <v>13</v>
+      </c>
+      <c r="U59">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V59" t="e">
+        <v>13</v>
+      </c>
+      <c r="V59">
         <f t="shared" si="18"/>
-        <v>#N/A</v>
+        <v>13</v>
       </c>
       <c r="W59" t="e">
         <f t="shared" si="18"/>
@@ -12203,7 +12203,7 @@
     <row r="61" spans="3:34" x14ac:dyDescent="0.25">
       <c r="D61" s="12">
         <f>EOMONTH(D58,0)+1</f>
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="E61" t="e">
         <f>IF(MEDIAN($D61,E$55,EOMONTH($D61,0))=E$55,0.5,NA())</f>
@@ -12245,37 +12245,37 @@
         <f t="shared" si="19"/>
         <v>#N/A</v>
       </c>
-      <c r="O61">
+      <c r="O61" t="e">
         <f t="shared" si="19"/>
-        <v>0.5</v>
-      </c>
-      <c r="P61">
+        <v>#N/A</v>
+      </c>
+      <c r="P61" t="e">
         <f t="shared" si="19"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q61">
+        <v>#N/A</v>
+      </c>
+      <c r="Q61" t="e">
         <f t="shared" si="19"/>
-        <v>0.5</v>
-      </c>
-      <c r="R61">
+        <v>#N/A</v>
+      </c>
+      <c r="R61" t="e">
         <f t="shared" si="19"/>
-        <v>0.5</v>
-      </c>
-      <c r="S61">
+        <v>#N/A</v>
+      </c>
+      <c r="S61" t="e">
         <f t="shared" si="19"/>
-        <v>0.5</v>
-      </c>
-      <c r="T61">
+        <v>#N/A</v>
+      </c>
+      <c r="T61" t="e">
         <f t="shared" si="19"/>
-        <v>0.5</v>
-      </c>
-      <c r="U61">
+        <v>#N/A</v>
+      </c>
+      <c r="U61" t="e">
         <f t="shared" si="19"/>
-        <v>0.5</v>
-      </c>
-      <c r="V61">
+        <v>#N/A</v>
+      </c>
+      <c r="V61" t="e">
         <f t="shared" si="19"/>
-        <v>0.5</v>
+        <v>#N/A</v>
       </c>
       <c r="W61">
         <f t="shared" si="19"/>
@@ -12329,7 +12329,7 @@
     <row r="62" spans="3:34" ht="30" x14ac:dyDescent="0.25">
       <c r="D62" s="12" t="str">
         <f>TEXT(D61,"mmm aaaa") &amp; " - Bande supérieure"</f>
-        <v>avr 2021 - Bande supérieure</v>
+        <v>mai 2021 - Bande supérieure</v>
       </c>
       <c r="E62" t="e">
         <f>E61+12.5</f>
@@ -12371,37 +12371,37 @@
         <f t="shared" si="20"/>
         <v>#N/A</v>
       </c>
-      <c r="O62">
+      <c r="O62" t="e">
         <f t="shared" si="20"/>
-        <v>13</v>
-      </c>
-      <c r="P62">
+        <v>#N/A</v>
+      </c>
+      <c r="P62" t="e">
         <f t="shared" si="20"/>
-        <v>13</v>
-      </c>
-      <c r="Q62">
+        <v>#N/A</v>
+      </c>
+      <c r="Q62" t="e">
         <f t="shared" si="20"/>
-        <v>13</v>
-      </c>
-      <c r="R62">
+        <v>#N/A</v>
+      </c>
+      <c r="R62" t="e">
         <f t="shared" si="20"/>
-        <v>13</v>
-      </c>
-      <c r="S62">
+        <v>#N/A</v>
+      </c>
+      <c r="S62" t="e">
         <f t="shared" si="20"/>
-        <v>13</v>
-      </c>
-      <c r="T62">
+        <v>#N/A</v>
+      </c>
+      <c r="T62" t="e">
         <f t="shared" si="20"/>
-        <v>13</v>
-      </c>
-      <c r="U62">
+        <v>#N/A</v>
+      </c>
+      <c r="U62" t="e">
         <f t="shared" si="20"/>
-        <v>13</v>
-      </c>
-      <c r="V62">
+        <v>#N/A</v>
+      </c>
+      <c r="V62" t="e">
         <f t="shared" si="20"/>
-        <v>13</v>
+        <v>#N/A</v>
       </c>
       <c r="W62">
         <f t="shared" si="20"/>
@@ -12458,7 +12458,7 @@
     <row r="65" spans="4:34" x14ac:dyDescent="0.25">
       <c r="D65" s="12">
         <f>D58+1</f>
-        <v>44257</v>
+        <v>44288</v>
       </c>
       <c r="E65" t="e">
         <f>IF(MEDIAN($D65,E$55)=E$55,0.5,NA())</f>
@@ -12584,7 +12584,7 @@
     <row r="66" spans="4:34" x14ac:dyDescent="0.25">
       <c r="D66" s="12">
         <f>D61+1</f>
-        <v>44288</v>
+        <v>44318</v>
       </c>
       <c r="E66" t="e">
         <f>IF(MEDIAN($D66,E$55)=E$55,0.5,NA())</f>
@@ -12630,41 +12630,41 @@
         <f t="shared" si="21"/>
         <v>#N/A</v>
       </c>
-      <c r="P66">
+      <c r="P66" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q66" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R66" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S66" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T66" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U66" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V66" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W66" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X66">
         <f t="shared" si="21"/>
         <v>0.5</v>
-      </c>
-      <c r="Q66" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R66" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S66" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T66" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U66" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V66" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W66" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X66" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
       </c>
       <c r="Y66" t="e">
         <f t="shared" si="21"/>
@@ -12834,123 +12834,123 @@
       </c>
       <c r="E70" t="str">
         <f t="shared" ref="E70:AH70" si="23">LEFT(UPPER(TEXT(E55,"jjj")),$D70)</f>
-        <v>LUN</v>
+        <v>MAR</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" si="23"/>
-        <v>MAR</v>
+        <v>MER</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" si="23"/>
-        <v>MER</v>
+        <v>JEU</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="23"/>
-        <v>JEU</v>
+        <v>VEN</v>
       </c>
       <c r="I70" t="str">
         <f t="shared" si="23"/>
-        <v>VEN</v>
+        <v>SAM</v>
       </c>
       <c r="J70" t="str">
         <f t="shared" si="23"/>
-        <v>SAM</v>
+        <v>DIM</v>
       </c>
       <c r="K70" t="str">
         <f t="shared" si="23"/>
-        <v>DIM</v>
+        <v>LUN</v>
       </c>
       <c r="L70" t="str">
         <f t="shared" si="23"/>
-        <v>LUN</v>
+        <v>MAR</v>
       </c>
       <c r="M70" t="str">
         <f t="shared" si="23"/>
-        <v>MAR</v>
+        <v>MER</v>
       </c>
       <c r="N70" t="str">
         <f t="shared" si="23"/>
-        <v>MER</v>
+        <v>JEU</v>
       </c>
       <c r="O70" t="str">
         <f t="shared" si="23"/>
-        <v>JEU</v>
+        <v>VEN</v>
       </c>
       <c r="P70" t="str">
         <f t="shared" si="23"/>
-        <v>VEN</v>
+        <v>SAM</v>
       </c>
       <c r="Q70" t="str">
         <f t="shared" si="23"/>
-        <v>SAM</v>
+        <v>DIM</v>
       </c>
       <c r="R70" t="str">
         <f t="shared" si="23"/>
-        <v>DIM</v>
+        <v>LUN</v>
       </c>
       <c r="S70" t="str">
         <f t="shared" si="23"/>
-        <v>LUN</v>
+        <v>MAR</v>
       </c>
       <c r="T70" t="str">
         <f t="shared" si="23"/>
-        <v>MAR</v>
+        <v>MER</v>
       </c>
       <c r="U70" t="str">
         <f t="shared" si="23"/>
-        <v>MER</v>
+        <v>JEU</v>
       </c>
       <c r="V70" t="str">
         <f t="shared" si="23"/>
-        <v>JEU</v>
+        <v>VEN</v>
       </c>
       <c r="W70" t="str">
         <f t="shared" si="23"/>
-        <v>VEN</v>
+        <v>SAM</v>
       </c>
       <c r="X70" t="str">
         <f t="shared" si="23"/>
-        <v>SAM</v>
+        <v>DIM</v>
       </c>
       <c r="Y70" t="str">
         <f t="shared" si="23"/>
-        <v>DIM</v>
+        <v>LUN</v>
       </c>
       <c r="Z70" t="str">
         <f t="shared" si="23"/>
-        <v>LUN</v>
+        <v>MAR</v>
       </c>
       <c r="AA70" t="str">
         <f t="shared" si="23"/>
-        <v>MAR</v>
+        <v>MER</v>
       </c>
       <c r="AB70" t="str">
         <f t="shared" si="23"/>
-        <v>MER</v>
+        <v>JEU</v>
       </c>
       <c r="AC70" t="str">
         <f t="shared" si="23"/>
-        <v>JEU</v>
+        <v>VEN</v>
       </c>
       <c r="AD70" t="str">
         <f t="shared" si="23"/>
-        <v>VEN</v>
+        <v>SAM</v>
       </c>
       <c r="AE70" t="str">
         <f t="shared" si="23"/>
-        <v>SAM</v>
+        <v>DIM</v>
       </c>
       <c r="AF70" t="str">
         <f t="shared" si="23"/>
-        <v>DIM</v>
+        <v>LUN</v>
       </c>
       <c r="AG70" t="str">
         <f t="shared" si="23"/>
-        <v>LUN</v>
+        <v>MAR</v>
       </c>
       <c r="AH70" t="str">
         <f t="shared" si="23"/>
-        <v>MAR</v>
+        <v>MER</v>
       </c>
     </row>
     <row r="71" spans="4:34" x14ac:dyDescent="0.25">
@@ -13077,123 +13077,123 @@
     <row r="72" spans="4:34" x14ac:dyDescent="0.25">
       <c r="E72" t="str">
         <f t="shared" ref="E72:AH72" si="24">TEXT(E55,"jj")</f>
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" si="24"/>
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G72" t="str">
         <f t="shared" si="24"/>
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="24"/>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I72" t="str">
         <f t="shared" si="24"/>
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J72" t="str">
         <f t="shared" si="24"/>
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="K72" t="str">
         <f t="shared" si="24"/>
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="L72" t="str">
         <f t="shared" si="24"/>
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="M72" t="str">
         <f t="shared" si="24"/>
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="N72" t="str">
         <f t="shared" si="24"/>
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="O72" t="str">
         <f t="shared" si="24"/>
-        <v>01</v>
+        <v>23</v>
       </c>
       <c r="P72" t="str">
         <f t="shared" si="24"/>
-        <v>02</v>
+        <v>24</v>
       </c>
       <c r="Q72" t="str">
         <f t="shared" si="24"/>
-        <v>03</v>
+        <v>25</v>
       </c>
       <c r="R72" t="str">
         <f t="shared" si="24"/>
-        <v>04</v>
+        <v>26</v>
       </c>
       <c r="S72" t="str">
         <f t="shared" si="24"/>
-        <v>05</v>
+        <v>27</v>
       </c>
       <c r="T72" t="str">
         <f t="shared" si="24"/>
-        <v>06</v>
+        <v>28</v>
       </c>
       <c r="U72" t="str">
         <f t="shared" si="24"/>
-        <v>07</v>
+        <v>29</v>
       </c>
       <c r="V72" t="str">
         <f t="shared" si="24"/>
-        <v>08</v>
+        <v>30</v>
       </c>
       <c r="W72" t="str">
         <f t="shared" si="24"/>
-        <v>09</v>
+        <v>01</v>
       </c>
       <c r="X72" t="str">
         <f t="shared" si="24"/>
-        <v>10</v>
+        <v>02</v>
       </c>
       <c r="Y72" t="str">
         <f t="shared" si="24"/>
-        <v>11</v>
+        <v>03</v>
       </c>
       <c r="Z72" t="str">
         <f t="shared" si="24"/>
-        <v>12</v>
+        <v>04</v>
       </c>
       <c r="AA72" t="str">
         <f t="shared" si="24"/>
-        <v>13</v>
+        <v>05</v>
       </c>
       <c r="AB72" t="str">
         <f t="shared" si="24"/>
-        <v>14</v>
+        <v>06</v>
       </c>
       <c r="AC72" t="str">
         <f t="shared" si="24"/>
-        <v>15</v>
+        <v>07</v>
       </c>
       <c r="AD72" t="str">
         <f t="shared" si="24"/>
-        <v>16</v>
+        <v>08</v>
       </c>
       <c r="AE72" t="str">
         <f t="shared" si="24"/>
-        <v>17</v>
+        <v>09</v>
       </c>
       <c r="AF72" t="str">
         <f t="shared" si="24"/>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AG72" t="str">
         <f t="shared" si="24"/>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AH72" t="str">
         <f t="shared" si="24"/>
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
